--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Wandering Albatross_Kerguelen.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Wandering Albatross_Kerguelen.xlsx
@@ -3694,13 +3694,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294847AB-1948-4799-ACD6-99902953C46B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B52237A4-3833-4B86-80DF-AD95AD255C8D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E6436A-5B23-4F19-813B-F5649EBF2EFE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8E3DE56-24C8-411B-99A3-D40632DFE96E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D98458-27F6-45FF-A086-934E98A86CA1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B0FD7B4-856E-4959-A057-401A4FB0CB55}"/>
 </file>